--- a/biology/Histoire de la zoologie et de la botanique/Adolphe_Bellevoye/Adolphe_Bellevoye.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolphe_Bellevoye/Adolphe_Bellevoye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Adolphe Bellevoye est un dessinateur et graveur français né le 9 avril 1830 à Metz et décédé le 29 novembre 1908 à Reims. Illustrateur de livres d'entomologie, de numismatique et d'héraldique, il fut officier d'Académie et membre de plusieurs sociétés savantes.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolphe Bellevoye naît à Metz, en Moselle, le 9 avril 1830[1]. Il fait ses études à l’école industrielle de Metz, avant de recevoir une formation de graveur chez Louis Michaud[1], un artiste messin. Il suit aussi les leçons d’Émile Faivre, qui l’encourage à réaliser des travaux artistiques. Adolphe Bellevoye tient une bijouterie, avec son atelier, où il exerce en même temps la gravure.
-Adolphe Bellevoye est aussi membre de sociétés savantes, où il publie des articles et des planches. En 1857, il est admis à l’Académie nationale de Metz et dès l'année suivante, il devient membre de la Société d'archéologie et d'histoire de la Moselle[2]. En 1863, Bellevoye devient également membre de la société d’Histoire naturelle de Metz. Il appartient aussi à la Société entomologique de France. Très tôt, il a en effet commencé une collection d’insectes de toutes les parties du monde ; dès 1857 sa collection de coléoptères est importante ; cette passion le suit toute sa vie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolphe Bellevoye naît à Metz, en Moselle, le 9 avril 1830. Il fait ses études à l’école industrielle de Metz, avant de recevoir une formation de graveur chez Louis Michaud, un artiste messin. Il suit aussi les leçons d’Émile Faivre, qui l’encourage à réaliser des travaux artistiques. Adolphe Bellevoye tient une bijouterie, avec son atelier, où il exerce en même temps la gravure.
+Adolphe Bellevoye est aussi membre de sociétés savantes, où il publie des articles et des planches. En 1857, il est admis à l’Académie nationale de Metz et dès l'année suivante, il devient membre de la Société d'archéologie et d'histoire de la Moselle. En 1863, Bellevoye devient également membre de la société d’Histoire naturelle de Metz. Il appartient aussi à la Société entomologique de France. Très tôt, il a en effet commencé une collection d’insectes de toutes les parties du monde ; dès 1857 sa collection de coléoptères est importante ; cette passion le suit toute sa vie.
 L'artiste messin est très affecté par la Guerre franco-allemande de 1870, et par le traité de Francfort, qui ratifie l'annexion de l’Alsace-Lorraine à l'Allemagne. Le 23 février 1870, Adolphe Bellevoye et son épouse, Mariette Picquant, ont un fils, qu'il prénomme Lucien.
-À partir de 1881, Adolphe Bellevoye, avec des Messins d’origine française, siège au conseil municipal de la ville devenue allemande[1]. Il est chargé des affaires culturelles. Il est membre d’associations de prévoyance et de secours mutuels et réalise, à cette époque, la biographie et le catalogue des dessins et peintures de son ami Auguste Migette, l'artiste de Trèves ayant légué ses œuvres à la ville[1]. En 1887, Adolphe Bellevoye, son épouse et leur fils décident de quitter Metz, pour Reims. Ce départ s’explique d'une part, à cause des tracasseries administratives allemandes, d'autre part, pour éviter que le jeune Lucien ne fasse son service militaire dans la Deutsches Heer, l’armée impériale allemande.
+À partir de 1881, Adolphe Bellevoye, avec des Messins d’origine française, siège au conseil municipal de la ville devenue allemande. Il est chargé des affaires culturelles. Il est membre d’associations de prévoyance et de secours mutuels et réalise, à cette époque, la biographie et le catalogue des dessins et peintures de son ami Auguste Migette, l'artiste de Trèves ayant légué ses œuvres à la ville. En 1887, Adolphe Bellevoye, son épouse et leur fils décident de quitter Metz, pour Reims. Ce départ s’explique d'une part, à cause des tracasseries administratives allemandes, d'autre part, pour éviter que le jeune Lucien ne fasse son service militaire dans la Deutsches Heer, l’armée impériale allemande.
 Adolphe Bellevoye choisit Reims, car il avait des contacts sur place, avec les membres des sociétés savantes locales. Adolphe Bellevoye crée alors une nouvelle bijouterie, continuant d'exercer ses talents de graveur sur des médailles. Il poursuit par ailleurs sa collaboration avec les sociétés savantes de sa ville natale. Il reconstitue l’ancienne société naturelle de Reims où, poursuivant son travail de gravure, il illustre de nombreux articles pour la plus grande joie des connaisseurs. Il appartient naturellement à l’Académie de Reims, et deviendra officier d’Académie en 1889.
 Adolphe Bellevoye décéda à Reims, le 29 novembre 1908. Une rue de Metz porte aujourd’hui son nom. Elle se situe dans le quartier de Devant les Ponts.
 </t>
@@ -547,9 +561,11 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adolphe Bellevoye fait partie des principaux graveurs messins du XIXe siècle[1] avec les deux Malardot, de Turgy, Aimé de Lemud, Auguste Hussenot, Gallyot, Pelletier, Penguilly et Léon Simon. Son œuvre artistique, influencée par le romantisme, illustre surtout le patrimoine historique et archéologique de Metz et de sa région. Il publiera des eaux-fortes en album : églises, châteaux et l’aqueduc de Jouy-aux-Arches. Il illustre de nombreux livres : planches de monnaies pour les numismates ; blasons, châteaux et arbres généalogiques pour les nobles ; églises, maisons anciennes, dessins de restes archéologiques, vitraux pour les érudits locaux et des ex-libris pour les bibliophiles. Son œuvre numismatique, avec des gravures de médailles, est considérable.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adolphe Bellevoye fait partie des principaux graveurs messins du XIXe siècle avec les deux Malardot, de Turgy, Aimé de Lemud, Auguste Hussenot, Gallyot, Pelletier, Penguilly et Léon Simon. Son œuvre artistique, influencée par le romantisme, illustre surtout le patrimoine historique et archéologique de Metz et de sa région. Il publiera des eaux-fortes en album : églises, châteaux et l’aqueduc de Jouy-aux-Arches. Il illustre de nombreux livres : planches de monnaies pour les numismates ; blasons, châteaux et arbres généalogiques pour les nobles ; églises, maisons anciennes, dessins de restes archéologiques, vitraux pour les érudits locaux et des ex-libris pour les bibliophiles. Son œuvre numismatique, avec des gravures de médailles, est considérable.
 </t>
         </is>
       </c>
@@ -580,15 +596,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Écrits autour de la gravure
-Rapport sur un autel portatif de la cathédrale de Metz avec gravures ;
+          <t>Écrits autour de la gravure</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Rapport sur un autel portatif de la cathédrale de Metz avec gravures ;
 Notice biographique sur Auguste Migette ;
 Catalogue et notes sur la collection du musée Migette ;
 Charles-André Malardot, son frère Gonzalve Malardot et Henry Turgny, graveurs à l’eau-forte, Messins. Biographie et catalogue de leurs œuvres, 1883 ;
 Notice sur Charles Robert, membre de l’Institut et achats de monnaies messines à sa vente pour le médailler de la ville de Metz, 1886 ;
-Restes du tombeau de Louis le Débonnaire au musée de Metz, 1887.
-Illustrations entomologiques
-Catalogue des hémiptères du département de la Moselle, Metz, 1863.
+Restes du tombeau de Louis le Débonnaire au musée de Metz, 1887.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations entomologiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Catalogue des hémiptères du département de la Moselle, Metz, 1863.
 Observations sur les Mœurs de plusieurs espèces de coléoptères vivant sur les plantes aquatiques, Metz, 1870.
 Insectes qui vivent sur les tilleuls de l’Esplanade de Metz et insectes nouveaux ou rares des environs de Metz, Metz, 1870.
 Mœurs des anthrénus qui vivent aux environs de Metz, Metz, 1878.
@@ -610,57 +665,232 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Adolphe_Bellevoye</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adolphe_Bellevoye</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Gravures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Gravures sur bois
-Anciens grands sceaux de la ville de Metz, ville libre impériale ;
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gravures sur bois</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Anciens grands sceaux de la ville de Metz, ville libre impériale ;
 Blasons de Metz ancien et les généalogies de Gargan et de Courten ;
-Portail et rue intérieure de l’église Saint-Eucaire de Metz.
-Numismatique, eau-forte et burin
-52 planches pour la numismatique de Cambrai de Charles Robert ;
+Portail et rue intérieure de l’église Saint-Eucaire de Metz.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Gravures</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Numismatique, eau-forte et burin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>52 planches pour la numismatique de Cambrai de Charles Robert ;
 Planches pour les œuvres de M. Chabert ;
-Planches pour les œuvres de Charles Robert.
-Archéologie et eaux-fortes
-Planches pour les peintures murales de l’église de Sillegny ;
+Planches pour les œuvres de Charles Robert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Gravures</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Archéologie et eaux-fortes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Planches pour les peintures murales de l’église de Sillegny ;
 Planche ancien vitrail de l’église Sainte-Ségolène de Metz ;
-Planche de bas reliefs sculptés au XVe siècle à la porte des Allemands.
-Châteaux, eaux-fortes
-Maison forte de Mardigny ;
+Planche de bas reliefs sculptés au XVe siècle à la porte des Allemands.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gravures</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Châteaux, eaux-fortes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Maison forte de Mardigny ;
 La Haute Maison et château de Woippy illustrant L’histoire du village de Woippy près de Metz de Nérée Quépat ;
 Restes du château des évêques de Metz, à Châtel-Saint-Germain ;
 Hôtel Gargan ;
 Tour de Thury près de Metz ;
-Château de Prény.
-Portraits, eaux-fortes
-Catherine Weyer ;
+Château de Prény.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Gravures</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Portraits, eaux-fortes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Catherine Weyer ;
 Henri Gaidon (publiciste à Paris) ;
-Louis Paris (à Reims).
-Gravures en médailles
-Vue du pont du chemin de fer entre Ars-sur-Moselle et Jouy-aux-Arches, avec les côtes de Saint-Blaise en dernier plan ;
+Louis Paris (à Reims).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adolphe_Bellevoye</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Gravures</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gravures en médailles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Vue du pont du chemin de fer entre Ars-sur-Moselle et Jouy-aux-Arches, avec les côtes de Saint-Blaise en dernier plan ;
 Médaille de Ferdinand de Saint-Urbain ;
 Médaille commémorative de la Venue des eaux de Gorze à Metz, 1866 ;
 Médaille du concours régional de 1868, avec les armoiries des chefs-lieux des départements faisant partie du concours ;
